--- a/data/TopOnePercent/Harbin Normal University.xlsx
+++ b/data/TopOnePercent/Harbin Normal University.xlsx
@@ -184,16 +184,16 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>725.0</v>
+        <v>701.0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>10122.0</v>
+        <v>9703.0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>13.96</v>
+        <v>13.84</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
@@ -206,13 +206,13 @@
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>462.0</v>
+        <v>459.0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>8885.0</v>
+        <v>9014.0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>19.23</v>
+        <v>19.64</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>6.0</v>
@@ -228,22 +228,22 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>2257.0</v>
+        <v>2205.0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>27171.0</v>
+        <v>26126.0</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>12.04</v>
+        <v>11.85</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Copyright © 2019 Clarivate Analytics</t>
+          <t>Copyright © 2020 Clarivate Analytics</t>
         </is>
       </c>
     </row>
